--- a/2020/May/All Details/14.05.2020/MC Bank Statement May 2020.xlsx
+++ b/2020/May/All Details/14.05.2020/MC Bank Statement May 2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -166,7 +166,10 @@
     <t>13.05.2020</t>
   </si>
   <si>
-    <t>Date: 13.05.2020</t>
+    <t>14.05.2020</t>
+  </si>
+  <si>
+    <t>Date: 14.05.2020</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1898,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2273,12 +2276,18 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="58"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="B22" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="62">
+        <v>400000</v>
+      </c>
+      <c r="D22" s="62">
+        <v>0</v>
+      </c>
       <c r="E22" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>713038</v>
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="2"/>
@@ -2286,12 +2295,18 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="58"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="B23" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="62">
+        <v>650000</v>
+      </c>
+      <c r="D23" s="136">
+        <v>300000</v>
+      </c>
       <c r="E23" s="64">
         <f>E22+C23-D23</f>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="2"/>
@@ -2304,7 +2319,7 @@
       <c r="D24" s="62"/>
       <c r="E24" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="2"/>
@@ -2317,7 +2332,7 @@
       <c r="D25" s="62"/>
       <c r="E25" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="2"/>
@@ -2330,7 +2345,7 @@
       <c r="D26" s="62"/>
       <c r="E26" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="2"/>
@@ -2343,7 +2358,7 @@
       <c r="D27" s="62"/>
       <c r="E27" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="2"/>
@@ -2356,7 +2371,7 @@
       <c r="D28" s="62"/>
       <c r="E28" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="2"/>
@@ -2369,7 +2384,7 @@
       <c r="D29" s="62"/>
       <c r="E29" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="2"/>
@@ -2382,7 +2397,7 @@
       <c r="D30" s="62"/>
       <c r="E30" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="2"/>
@@ -2395,7 +2410,7 @@
       <c r="D31" s="62"/>
       <c r="E31" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="2"/>
@@ -2408,7 +2423,7 @@
       <c r="D32" s="62"/>
       <c r="E32" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="2"/>
@@ -2421,7 +2436,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="2"/>
@@ -2434,7 +2449,7 @@
       <c r="D34" s="62"/>
       <c r="E34" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="2"/>
@@ -2447,7 +2462,7 @@
       <c r="D35" s="62"/>
       <c r="E35" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="2"/>
@@ -2460,7 +2475,7 @@
       <c r="D36" s="62"/>
       <c r="E36" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="2"/>
@@ -2473,7 +2488,7 @@
       <c r="D37" s="62"/>
       <c r="E37" s="64">
         <f t="shared" si="0"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="2"/>
@@ -2486,7 +2501,7 @@
       <c r="D38" s="62"/>
       <c r="E38" s="64">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="2"/>
@@ -2499,7 +2514,7 @@
       <c r="D39" s="62"/>
       <c r="E39" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="2"/>
@@ -2512,7 +2527,7 @@
       <c r="D40" s="62"/>
       <c r="E40" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="2"/>
@@ -2525,7 +2540,7 @@
       <c r="D41" s="62"/>
       <c r="E41" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="2"/>
@@ -2538,7 +2553,7 @@
       <c r="D42" s="62"/>
       <c r="E42" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="2"/>
@@ -2551,7 +2566,7 @@
       <c r="D43" s="62"/>
       <c r="E43" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="2"/>
@@ -2564,7 +2579,7 @@
       <c r="D44" s="62"/>
       <c r="E44" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="2"/>
@@ -2577,7 +2592,7 @@
       <c r="D45" s="62"/>
       <c r="E45" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="2"/>
@@ -2590,7 +2605,7 @@
       <c r="D46" s="62"/>
       <c r="E46" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="2"/>
@@ -2603,7 +2618,7 @@
       <c r="D47" s="62"/>
       <c r="E47" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="2"/>
@@ -2616,7 +2631,7 @@
       <c r="D48" s="62"/>
       <c r="E48" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="2"/>
@@ -2628,7 +2643,7 @@
       <c r="D49" s="62"/>
       <c r="E49" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="2"/>
@@ -2640,7 +2655,7 @@
       <c r="D50" s="62"/>
       <c r="E50" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="2"/>
@@ -2652,7 +2667,7 @@
       <c r="D51" s="62"/>
       <c r="E51" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="2"/>
@@ -2664,7 +2679,7 @@
       <c r="D52" s="62"/>
       <c r="E52" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="2"/>
@@ -2676,7 +2691,7 @@
       <c r="D53" s="62"/>
       <c r="E53" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="2"/>
@@ -2688,7 +2703,7 @@
       <c r="D54" s="62"/>
       <c r="E54" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="2"/>
@@ -2700,7 +2715,7 @@
       <c r="D55" s="62"/>
       <c r="E55" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F55" s="54"/>
       <c r="G55" s="2"/>
@@ -2711,7 +2726,7 @@
       <c r="D56" s="62"/>
       <c r="E56" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56" s="2"/>
@@ -2722,7 +2737,7 @@
       <c r="D57" s="62"/>
       <c r="E57" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="2"/>
@@ -2733,7 +2748,7 @@
       <c r="D58" s="62"/>
       <c r="E58" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="2"/>
@@ -2744,7 +2759,7 @@
       <c r="D59" s="62"/>
       <c r="E59" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="2"/>
@@ -2755,7 +2770,7 @@
       <c r="D60" s="62"/>
       <c r="E60" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60" s="2"/>
@@ -2766,7 +2781,7 @@
       <c r="D61" s="62"/>
       <c r="E61" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="2"/>
@@ -2777,7 +2792,7 @@
       <c r="D62" s="62"/>
       <c r="E62" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62" s="2"/>
@@ -2788,7 +2803,7 @@
       <c r="D63" s="62"/>
       <c r="E63" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F63" s="54"/>
       <c r="G63" s="2"/>
@@ -2799,7 +2814,7 @@
       <c r="D64" s="62"/>
       <c r="E64" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="2"/>
@@ -2810,7 +2825,7 @@
       <c r="D65" s="62"/>
       <c r="E65" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="2"/>
@@ -2821,7 +2836,7 @@
       <c r="D66" s="62"/>
       <c r="E66" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="2"/>
@@ -2832,7 +2847,7 @@
       <c r="D67" s="62"/>
       <c r="E67" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="2"/>
@@ -2843,7 +2858,7 @@
       <c r="D68" s="62"/>
       <c r="E68" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F68" s="54"/>
       <c r="G68" s="2"/>
@@ -2854,7 +2869,7 @@
       <c r="D69" s="62"/>
       <c r="E69" s="64">
         <f t="shared" si="1"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F69" s="54"/>
       <c r="G69" s="2"/>
@@ -2865,7 +2880,7 @@
       <c r="D70" s="62"/>
       <c r="E70" s="64">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F70" s="54"/>
       <c r="G70" s="2"/>
@@ -2876,7 +2891,7 @@
       <c r="D71" s="62"/>
       <c r="E71" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="2"/>
@@ -2887,7 +2902,7 @@
       <c r="D72" s="62"/>
       <c r="E72" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F72" s="54"/>
       <c r="G72" s="2"/>
@@ -2898,7 +2913,7 @@
       <c r="D73" s="62"/>
       <c r="E73" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F73" s="54"/>
       <c r="G73" s="2"/>
@@ -2909,7 +2924,7 @@
       <c r="D74" s="62"/>
       <c r="E74" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F74" s="54"/>
       <c r="G74" s="2"/>
@@ -2920,7 +2935,7 @@
       <c r="D75" s="62"/>
       <c r="E75" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F75" s="56"/>
       <c r="G75" s="2"/>
@@ -2931,7 +2946,7 @@
       <c r="D76" s="62"/>
       <c r="E76" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F76" s="54"/>
       <c r="G76" s="2"/>
@@ -2942,7 +2957,7 @@
       <c r="D77" s="62"/>
       <c r="E77" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F77" s="54"/>
       <c r="G77" s="2"/>
@@ -2953,7 +2968,7 @@
       <c r="D78" s="62"/>
       <c r="E78" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="2"/>
@@ -2964,7 +2979,7 @@
       <c r="D79" s="62"/>
       <c r="E79" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F79" s="54"/>
       <c r="G79" s="2"/>
@@ -2975,7 +2990,7 @@
       <c r="D80" s="62"/>
       <c r="E80" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="2"/>
@@ -2986,7 +3001,7 @@
       <c r="D81" s="62"/>
       <c r="E81" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F81" s="54"/>
       <c r="G81" s="2"/>
@@ -2997,7 +3012,7 @@
       <c r="D82" s="62"/>
       <c r="E82" s="64">
         <f t="shared" si="2"/>
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="2"/>
@@ -3006,15 +3021,15 @@
       <c r="B83" s="69"/>
       <c r="C83" s="64">
         <f>SUM(C5:C72)</f>
-        <v>9263038</v>
+        <v>10313038</v>
       </c>
       <c r="D83" s="64">
         <f>SUM(D5:D77)</f>
-        <v>8950000</v>
+        <v>9250000</v>
       </c>
       <c r="E83" s="130">
         <f>E71+C83-D83</f>
-        <v>626076</v>
+        <v>2126076</v>
       </c>
       <c r="F83" s="55"/>
       <c r="G83" s="2"/>
@@ -3043,7 +3058,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3080,7 +3095,7 @@
     </row>
     <row r="2" spans="1:38" ht="21.75" customHeight="1">
       <c r="A2" s="144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -3172,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="91">
-        <v>2999018.5225</v>
+        <v>2697795.5874999999</v>
       </c>
       <c r="F4" s="119"/>
       <c r="G4" s="85"/>
@@ -3213,14 +3228,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="28">
-        <v>125192.005</v>
+        <v>147200.12</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="133" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="91">
-        <v>313038</v>
+        <v>1063038</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="85"/>
@@ -3262,14 +3277,14 @@
       </c>
       <c r="B6" s="28">
         <f>B4+B5</f>
-        <v>6625192.0049999999</v>
+        <v>6647200.1200000001</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="132" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="92">
-        <v>398255</v>
+        <v>745305</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="85"/>
@@ -3315,7 +3330,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="39">
-        <v>1598616</v>
+        <v>1598500</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="85"/>
@@ -3356,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="28">
-        <v>10990</v>
+        <v>12340</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="108"/>
@@ -3407,7 +3422,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="91">
-        <v>505274.48249999993</v>
+        <v>380221.53249999974</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="85" t="s">
@@ -3451,7 +3466,7 @@
       </c>
       <c r="B10" s="131">
         <f>B5-B8-B9</f>
-        <v>114202.005</v>
+        <v>134860.12</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="108"/>
@@ -3495,7 +3510,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="29">
-        <v>800000</v>
+        <v>150000</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -3582,7 +3597,7 @@
       </c>
       <c r="B13" s="30">
         <f>B6-B8-B11+B12-B9</f>
-        <v>5814202.0049999999</v>
+        <v>6484860.1200000001</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
@@ -3590,7 +3605,7 @@
       </c>
       <c r="E13" s="40">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>5814202.0049999999</v>
+        <v>6484860.1200000001</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="82">
@@ -3718,14 +3733,14 @@
         <v>22</v>
       </c>
       <c r="B16" s="79">
-        <v>171144</v>
+        <v>165350</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="96">
-        <v>193235</v>
+        <v>194200</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="87"/>
@@ -3773,7 +3788,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="97">
-        <v>351135</v>
+        <v>338491</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="86"/>
@@ -3820,7 +3835,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="99">
-        <v>306950</v>
+        <v>294808</v>
       </c>
       <c r="G18" s="87"/>
       <c r="H18" s="86"/>
@@ -3867,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="99">
-        <v>243840</v>
+        <v>230501</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="86"/>
